--- a/scene_cat_exp_2023.2.2_english/input_files/63_scenecat_block_order.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/63_scenecat_block_order.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>kitchens_1</t>
+          <t>living_rooms_2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -380,7 +380,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>living_rooms_2</t>
+          <t>kitchens_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -397,10 +397,10 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -423,10 +423,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -474,19 +474,19 @@
         <v>0</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
